--- a/data/income_statement/3digits/total/952_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/952_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>952-Repair of personal and household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>952-Repair of personal and household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>498222.7773</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>543642.8819200001</v>
+        <v>543642.88192</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>732071.1454400001</v>
+        <v>732264.0741</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>748860.6359700001</v>
+        <v>749186.3971299999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>720689.1772499999</v>
+        <v>720923.5481499999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>817014.9990299999</v>
+        <v>822977.48135</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>966041.15864</v>
+        <v>975951.7705999999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1178473.00045</v>
+        <v>1178485.00045</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1430800.91659</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1634218.30694</v>
+        <v>1644002.26862</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1824578.5457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1890431.90058</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2340020.019</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>456011.1808</v>
@@ -995,19 +906,19 @@
         <v>500253.52573</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>679916.81084</v>
+        <v>680109.7395</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>688613.0372500001</v>
+        <v>688938.7984099999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>669733.4414300001</v>
+        <v>669966.40336</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>750884.4704</v>
+        <v>755900.7996199999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>885887.9733299999</v>
+        <v>895641.9071</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>1081297.54869</v>
@@ -1016,16 +927,21 @@
         <v>1323072.67473</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1526118.33644</v>
+        <v>1532612.69926</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1699739.82443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1762080.86812</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2180960.969</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>13318.45699</v>
@@ -1046,31 +962,36 @@
         <v>16417.16806</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9929.917600000001</v>
+        <v>9947.06537</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9773.790130000001</v>
+        <v>9773.790129999999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>19512.65544</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9728.977010000001</v>
+        <v>12903.59597</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>12533.65507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14916.87996</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>23511.925</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>28893.13951</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>32456.57137000001</v>
+        <v>32456.57137</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>40126.86524</v>
@@ -1079,91 +1000,101 @@
         <v>47234.07777</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>38512.77847</v>
+        <v>38514.18743999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>49713.36057</v>
+        <v>50659.51367</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>70223.26771000001</v>
+        <v>70362.79813</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>87401.66163</v>
+        <v>87413.66163</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>88215.58642000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>98370.99349000001</v>
+        <v>98485.97339000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>112305.0662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>113434.1525</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>135547.125</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6628.818929999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7195.929510000001</v>
+        <v>7195.92951</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>6128.91635</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6981.346199999999</v>
+        <v>6981.3462</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6591.188720000001</v>
+        <v>6591.18872</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7263.767040000001</v>
+        <v>7316.14878</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9050.233029999999</v>
+        <v>9115.415000000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9679.861969999998</v>
+        <v>9679.86197</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>10842.2305</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23019.26152</v>
+        <v>23047.73973</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>21015.2664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21767.29706</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>36596.752</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5748.07277</v>
+        <v>5748.072770000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6954.090800000001</v>
+        <v>6954.0908</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5636.02622</v>
+        <v>5636.026220000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5950.621899999999</v>
+        <v>5950.6219</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>6111.7386</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6547.998269999999</v>
+        <v>6600.06221</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8772.320030000001</v>
+        <v>8837.502</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>8577.748240000001</v>
@@ -1172,19 +1103,24 @@
         <v>9812.257180000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20881.07157</v>
+        <v>20909.12733</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>20438.0912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20941.41557</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>35608.143</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>790.6122799999999</v>
+        <v>790.6122800000001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>226.38502</v>
@@ -1214,13 +1150,18 @@
         <v>1769.25729</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>301.47345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>317.84021</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>591.552</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>90.13388</v>
@@ -1235,10 +1176,10 @@
         <v>371.9604200000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>93.17312999999999</v>
+        <v>93.17313</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>52.02409</v>
+        <v>52.34189</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>51.72758</v>
@@ -1250,16 +1191,21 @@
         <v>244.06664</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>368.9326600000001</v>
+        <v>369.35511</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>275.70175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>508.04128</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>397.057</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>491593.95837</v>
@@ -1268,37 +1214,42 @@
         <v>536446.9524099999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>725942.2290899999</v>
+        <v>726135.15775</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>741879.28977</v>
+        <v>742205.05093</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>714097.9885300001</v>
+        <v>714332.35943</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>809751.23199</v>
+        <v>815661.3325700001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>956990.9256099999</v>
+        <v>966836.3556</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1168793.13848</v>
+        <v>1168805.13848</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1419958.68609</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1611199.04542</v>
+        <v>1620954.52889</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1803563.2793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1868664.60352</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2303423.267</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>353203.71517</v>
@@ -1307,37 +1258,42 @@
         <v>383235.44597</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>536401.86405</v>
+        <v>536699.00757</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>539513.7881499999</v>
+        <v>539632.2530899999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>512018.4332800001</v>
+        <v>512114.1496600001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>597067.7535</v>
+        <v>600909.9197999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>711366.41888</v>
+        <v>718744.007</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>881477.40449</v>
+        <v>881481.64049</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1086640.20004</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1261668.7681</v>
+        <v>1266873.39406</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1410729.66132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1464152.84507</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1845565.046</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>31809.92513</v>
@@ -1352,31 +1308,36 @@
         <v>31553.88249</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>40462.37971</v>
+        <v>40500.22971</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>47705.61198</v>
+        <v>47910.70092</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>78233.99832</v>
+        <v>78627.88079</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>73687.16371000001</v>
+        <v>73687.16370999999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>82611.08097</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>99987.17683</v>
+        <v>100217.69996</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>114476.43442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>118077.32502</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>148101.265</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>193071.20467</v>
@@ -1385,19 +1346,19 @@
         <v>201719.8889</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>304278.62263</v>
+        <v>304281.27123</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>285584.2148</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>244644.09787</v>
+        <v>244701.96425</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>275274.20739</v>
+        <v>277077.02594</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>318036.37349</v>
+        <v>322557.65476</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>409873.39612</v>
@@ -1406,16 +1367,21 @@
         <v>532110.8462799999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>561877.20425</v>
+        <v>565168.2422699999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>633456.10791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>667737.55751</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>883038.743</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>127706.89064</v>
@@ -1424,19 +1390,19 @@
         <v>148317.10989</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>186951.98792</v>
+        <v>187246.48284</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>221206.57267</v>
+        <v>221325.03761</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>225510.25779</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>265644.05174</v>
+        <v>267478.31055</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>303038.65236</v>
+        <v>305501.07674</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>388591.88791</v>
@@ -1445,16 +1411,21 @@
         <v>457800.16286</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>585426.3091900001</v>
+        <v>587109.374</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>645887.96248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>661164.1935599999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>796562.643</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>615.6947299999999</v>
@@ -1478,7 +1449,7 @@
         <v>12057.39471</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9324.956749999999</v>
+        <v>9329.19275</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>14118.10993</v>
@@ -1487,13 +1458,18 @@
         <v>14378.07783</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>16909.15651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17173.76898</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>17862.395</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>138390.2432</v>
@@ -1502,37 +1478,42 @@
         <v>153211.50644</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>189540.36504</v>
+        <v>189436.15018</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>202365.50162</v>
+        <v>202572.79784</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>202079.55525</v>
+        <v>202218.20977</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>212683.47849</v>
+        <v>214751.41277</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>245624.50673</v>
+        <v>248092.3486</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>287315.73399</v>
+        <v>287323.49799</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>333318.48605</v>
+        <v>333318.4860499999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>349530.27732</v>
+        <v>354081.13483</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>392833.61798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>404511.75845</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>457858.221</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>123512.04796</v>
@@ -1541,37 +1522,42 @@
         <v>129259.42917</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>162147.01796</v>
+        <v>162193.78742</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>176256.52983</v>
+        <v>176351.2991</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>173845.37868</v>
+        <v>174046.61929</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>183614.25905</v>
+        <v>185853.94424</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>203799.46269</v>
+        <v>206126.64419</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>246003.19847</v>
+        <v>246006.42116</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>294435.27802</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>321321.70418</v>
+        <v>325502.8575800001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>349929.71934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>361346.19493</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>396538.245</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2668.01163</v>
@@ -1580,7 +1566,7 @@
         <v>2605.89209</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3613.27023</v>
+        <v>3613.270230000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>1730.44117</v>
@@ -1604,13 +1590,18 @@
         <v>1672.1353</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>955.5715300000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>959.3441700000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>768.347</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>23537.25457</v>
@@ -1625,13 +1616,13 @@
         <v>31318.64443</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>32731.055</v>
+        <v>32746.59746</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>35153.34241</v>
+        <v>35592.29296</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41776.39087</v>
+        <v>42498.04184000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>47317.71519</v>
@@ -1640,55 +1631,65 @@
         <v>61378.89039</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>76473.70249</v>
+        <v>77019.60515999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>83462.92679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>87801.73955000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>95368.909</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>97306.78176000001</v>
+        <v>97306.78175999998</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>102642.00975</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>127178.54089</v>
+        <v>127225.31035</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>143207.44423</v>
+        <v>143302.2135</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>140280.09266</v>
+        <v>140465.79081</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>145261.01122</v>
+        <v>147061.74586</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>159535.99621</v>
+        <v>161141.52674</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>196250.86497</v>
+        <v>196254.08766</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>232238.41697</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>243175.86639</v>
+        <v>246811.11712</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>265511.22102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>272585.11121</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>300400.989</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>14878.19524</v>
@@ -1697,37 +1698,42 @@
         <v>23952.07727</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>27393.34708</v>
+        <v>27242.36276</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>26108.97179</v>
+        <v>26221.49874</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>28234.17657</v>
+        <v>28171.59048</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>29069.21944</v>
+        <v>28897.46853</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>41825.04404</v>
+        <v>41965.70441</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>41312.53552</v>
+        <v>41317.07683</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>38883.20803</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>28208.57314</v>
+        <v>28578.27725</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>42903.89864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>43165.56352</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>61319.976</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>3529.94903</v>
@@ -1742,31 +1748,36 @@
         <v>4226.21005</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4389.77118</v>
+        <v>4390.02118</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4702.71795</v>
+        <v>4734.64668</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6001.58285</v>
+        <v>6412.27554</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>10808.1578</v>
+        <v>10807.507</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>12175.81223</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>27916.18418</v>
+        <v>28127.39153</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>27065.66732</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>27350.05768</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>29562.749</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>23.27043</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>792.96177</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>412.094</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>624.2305799999999</v>
@@ -1862,28 +1883,33 @@
         <v>630.90712</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>867.2540299999999</v>
+        <v>889.20311</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1238.8025</v>
+        <v>1327.20659</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>1574.40621</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3725.42206</v>
+        <v>3725.422059999999</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>7414.27087</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9161.917150000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9164.007900000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6511.855</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>220.18082</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>20.66666</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>16.746</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>35.76434</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>966.02201</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>567.112</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>34.57957</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>23.00996</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>164.526</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>437.18895</v>
@@ -2012,16 +2053,16 @@
         <v>988.2143699999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>567.6196100000001</v>
+        <v>567.61961</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>971.0983199999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1084.99707</v>
+        <v>1094.64147</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2600.26232</v>
+        <v>2846.06551</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>2642.55633</v>
@@ -2030,16 +2071,21 @@
         <v>2566.66855</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12796.96961</v>
+        <v>12960.98993</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6608.01982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6661.15111</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11793.054</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.31264</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>160.69532</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>65.755</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>50.32817</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>80.32317000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>189.959</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2104.09353</v>
@@ -2132,31 +2188,36 @@
         <v>2549.64628</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2332.79425</v>
+        <v>2333.04425</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2208.57647</v>
+        <v>2208.91172</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1823.2988</v>
+        <v>1899.78421</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6225.68353</v>
+        <v>6225.032730000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>5351.871</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6456.12947</v>
+        <v>6503.3165</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9252.051460000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9481.219780000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>9841.647999999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2678.66262</v>
@@ -2165,7 +2226,7 @@
         <v>2063.29291</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4603.888400000001</v>
+        <v>4603.8884</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>1634.66085</v>
@@ -2174,28 +2235,33 @@
         <v>3180.80042</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5688.14983</v>
+        <v>5692.72565</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3671.05105</v>
+        <v>3705.45264</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4898.9126</v>
+        <v>4898.912600000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5516.176060000001</v>
+        <v>5516.17606</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19507.165</v>
+        <v>19602.58819</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12122.89484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12246.60491</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>18056.648</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>79.35911</v>
@@ -2207,7 +2273,7 @@
         <v>79.05902000000002</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>58.15607</v>
+        <v>58.15607000000001</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>102.60547</v>
@@ -2225,16 +2291,21 @@
         <v>554.8386999999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2276.46693</v>
+        <v>2280.51486</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1280.80682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1295.37707</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2822.197</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1400.11596</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3347.5554</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3857.434</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>19.99825</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>27.961</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>643.97687</v>
@@ -2330,10 +2411,10 @@
         <v>2004.60892</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1365.34981</v>
+        <v>1369.80705</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2409.35796</v>
+        <v>2443.65153</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>2598.42864</v>
@@ -2342,16 +2423,21 @@
         <v>3039.42364</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>13319.99433</v>
+        <v>13407.26785</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6408.95091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6470.42397</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8887.438</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>43.26448</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>155.42577</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62.281</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>78.87196</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>80.62065</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>273.792</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>413.07599</v>
@@ -2447,10 +2543,10 @@
         <v>297.8275</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3679.98</v>
+        <v>3680.098579999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>515.66391</v>
+        <v>515.7719299999999</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>472.73214</v>
@@ -2459,16 +2555,21 @@
         <v>404.30623</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>577.83338</v>
+        <v>581.93512</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>849.53529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>897.2020500000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2125.545</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>5493.33509</v>
@@ -2483,34 +2584,39 @@
         <v>5876.85454</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5245.314369999999</v>
+        <v>5245.33037</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6878.85857</v>
+        <v>6896.27963</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10166.52669</v>
+        <v>10201.06115</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9498.537259999999</v>
+        <v>9500.998320000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>12737.09588</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18534.96232</v>
+        <v>18564.03813</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>18439.03286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>19678.91943</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>16833.74</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5263.180840000001</v>
+        <v>5263.18084</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>3161.91705</v>
@@ -2522,31 +2628,36 @@
         <v>4910.49641</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5027.70976</v>
+        <v>5027.72576</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6736.82801</v>
+        <v>6740.528679999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10053.49474</v>
+        <v>10063.78465</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9378.085939999999</v>
+        <v>9380.547</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>12365.27232</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>18053.94692</v>
+        <v>18083.02273</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17841.53123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>18939.59984</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>16032.319</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>230.15425</v>
@@ -2558,16 +2669,16 @@
         <v>240.86891</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>966.35813</v>
+        <v>966.3581300000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>217.60461</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>142.03056</v>
+        <v>155.75095</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>113.03195</v>
+        <v>137.2765</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>120.45132</v>
@@ -2579,13 +2690,18 @@
         <v>481.0154</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>597.50163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>739.3195899999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>801.421</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>10236.14656</v>
@@ -2594,37 +2710,42 @@
         <v>22702.51857</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>23137.13438</v>
+        <v>22986.15006</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>22823.66645</v>
+        <v>22936.1934</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>24197.83296</v>
+        <v>24135.48087</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>21204.92899</v>
+        <v>21043.10993</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>33989.04915</v>
+        <v>34471.46616</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>37723.24346</v>
+        <v>37724.67290999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>32805.74832</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18082.63</v>
+        <v>18539.04246</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>39407.63826000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>38590.09686</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>55992.337</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2835.96399</v>
@@ -2639,31 +2760,36 @@
         <v>6036.84394</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5297.562630000001</v>
+        <v>5303.81133</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5271.93939</v>
+        <v>5292.80487</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6081.8729</v>
+        <v>6151.56398</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9387.735189999999</v>
+        <v>9388.908939999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>15304.6403</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>17583.48281</v>
+        <v>17615.95964</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>20356.36199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>20598.38519</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22626.132</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>29.45433</v>
@@ -2681,7 +2807,7 @@
         <v>25.09814</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>226.2606</v>
+        <v>226.71283</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>16.43698</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>57.48015</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>19.379</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2806.50966</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3341.571350000001</v>
+        <v>3341.57135</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>4991.81042</v>
@@ -2717,31 +2848,36 @@
         <v>5994.4152</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5272.464489999999</v>
+        <v>5278.713189999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5045.678789999999</v>
+        <v>5066.09204</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6065.435920000001</v>
+        <v>6135.127</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9255.595459999999</v>
+        <v>9256.76921</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>15002.86274</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>17430.36244</v>
+        <v>17462.83927</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20298.88184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>20540.90504</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22606.753</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2883.74056</v>
@@ -2756,13 +2892,13 @@
         <v>5744.13963</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12364.41361</v>
+        <v>12364.52056</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>15888.91222</v>
+        <v>15933.79933</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14485.2332</v>
+        <v>14544.75118</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>27396.064</v>
@@ -2771,16 +2907,21 @@
         <v>22536.14156</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14571.84047</v>
+        <v>14629.66321</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8255.14861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8396.665660000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>11143.613</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>14.27604</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>25.33995</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>47.692</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>219.27597</v>
@@ -2837,7 +2983,7 @@
         <v>111.15109</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>70.55066000000001</v>
+        <v>85.42341999999999</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>229.83981</v>
@@ -2849,16 +2995,21 @@
         <v>267.92052</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>59.67763000000001</v>
+        <v>91.50445999999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>194.53388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>234.36585</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>507.223</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2650.18855</v>
@@ -2873,13 +3024,13 @@
         <v>5352.0268</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12170.20776</v>
+        <v>12170.31471</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>15597.65659</v>
+        <v>15627.67094</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14058.60493</v>
+        <v>14118.12291</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>27082.33988</v>
@@ -2888,16 +3039,21 @@
         <v>21986.58274</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>14506.59789</v>
+        <v>14532.5938</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>8035.274780000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>8136.959859999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>10588.698</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>10188.36999</v>
@@ -2906,37 +3062,42 @@
         <v>21363.61865</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5239.96274</v>
+        <v>5088.978419999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>23116.37076</v>
+        <v>23228.89771</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>17130.98198</v>
+        <v>17074.77164</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>10587.95616</v>
+        <v>10402.11547</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>25585.68885</v>
+        <v>26078.27896</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>19714.91465</v>
+        <v>19717.51785</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>25574.24706</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>21094.27234</v>
+        <v>21525.33889</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>51508.85164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>50791.81639</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>67474.856</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4467.645229999999</v>
@@ -2948,34 +3109,39 @@
         <v>6818.6805</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6326.31311</v>
+        <v>6326.313109999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5430.13836</v>
+        <v>5430.138359999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6187.01361</v>
+        <v>6194.18113</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8407.92491</v>
+        <v>8408.80874</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9445.335280000001</v>
+        <v>9445.335279999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>9443.55949</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>14278.34651</v>
+        <v>14457.15783</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>17828.4113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>17959.63006</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>22655.168</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>5720.72476</v>
@@ -2984,34 +3150,37 @@
         <v>15791.66797</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1578.71776</v>
+        <v>-1729.702080000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>16790.05765</v>
+        <v>16902.5846</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>11700.84362</v>
+        <v>11644.63328</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4400.94255</v>
+        <v>4207.93434</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>17177.76394</v>
+        <v>17669.47022</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>10269.57937</v>
+        <v>10272.18257</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>16130.68757</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6815.92583</v>
+        <v>7068.181060000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>33680.44034</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>32832.18633</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>44819.688</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1559</v>
@@ -3038,34 +3210,37 @@
         <v>1555</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1194</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1218</v>
+        <v>1256</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1293</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>